--- a/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-10.xlsx
+++ b/semester A/Data Analysis/Assignments/Koutsompinas-Assignment-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppapa\OneDrive\Υπολογιστής\MSC\semester A\Data Analysis\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790E542E-ABD3-4F06-A10F-CB0F0E1979CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25BEB51-CCA0-4650-9061-9CAE8DCACAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dow Jones" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,23 @@
     <sheet name="Child Mortality 2022 " sheetId="7" r:id="rId3"/>
     <sheet name="Apartments" sheetId="8" r:id="rId4"/>
     <sheet name="Logarithmic Apartments" sheetId="9" r:id="rId5"/>
+    <sheet name="Without age" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Apartments!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Logarithmic Apartments'!$C$3</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="95">
   <si>
     <t>Year</t>
   </si>
@@ -338,8 +346,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -639,7 +647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,13 +713,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -740,7 +748,7 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -750,8 +758,15 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27095,9 +27110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>582283</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122207</xdr:rowOff>
+      <xdr:colOff>542041</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>31423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27112,8 +27127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="62753" y="5229553"/>
-          <a:ext cx="4430172" cy="1470296"/>
+          <a:off x="62753" y="5258678"/>
+          <a:ext cx="4407123" cy="1748580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27165,11 +27180,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
-            <a:t>age of structure </a:t>
+            <a:t>age of structure (</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0"/>
-            <a:t>και έγινε σημαντικό το </a:t>
+            <a:t>το οποίο βγάζουμε στην επόμενη σελίδα) και έγινε σημαντικό το </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
@@ -27177,7 +27192,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0"/>
-            <a:t>Επίσης φαίνεται</a:t>
+            <a:t> Επίσης φαίνεται</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
@@ -27215,6 +27230,94 @@
           <a:r>
             <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0"/>
             <a:t>φαίνεται να είναι 20% και 39% αντίστοιχα. (Στη λογαριθμική παλινδρόμηση, γνωρίζουμε ότι η ελαστικότητες των παραγόντων είναι ίσες με τους συντελεστές β.) Επομένως δεν είναι σωστή η εκτίμηση του προέδρου.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405B6634-0A68-68B6-BFFD-3ACA50332390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14654" y="4872404"/>
+          <a:ext cx="3135923" cy="2242038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" kern="1200"/>
+            <a:t>Βλέπουμε</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0"/>
+            <a:t> ότι χωρίς το </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>age of structure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0"/>
+            <a:t>, οι ελαστικότητες είναι 0.26 και 0.44 αντίστοιχα , αλλά και πάλι η πρόβλεψη του προέδρου δεν είναι σωστή.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
@@ -27580,7 +27683,7 @@
         <f t="array" ref="T2:T11">FREQUENCY(N2:N120,S2:S10)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2">
         <f>T2</f>
         <v>1</v>
       </c>
@@ -27631,7 +27734,7 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3">
         <f>T3+U2</f>
         <v>1</v>
       </c>
@@ -27682,7 +27785,7 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4">
         <f t="shared" ref="U4:U11" si="3">T4+U3</f>
         <v>1</v>
       </c>
@@ -27695,7 +27798,7 @@
         <v>-0.13956012490693723</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X3:X11" si="5">(W4-$U$17)^2</f>
+        <f t="shared" ref="X4:X11" si="5">(W4-$U$17)^2</f>
         <v>2.2228458418319292E-2</v>
       </c>
     </row>
@@ -27733,7 +27836,7 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -27784,7 +27887,7 @@
       <c r="T6">
         <v>9</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
@@ -27835,7 +27938,7 @@
       <c r="T7">
         <v>24</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -27886,7 +27989,7 @@
       <c r="T8">
         <v>44</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
@@ -27937,7 +28040,7 @@
       <c r="T9">
         <v>29</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
@@ -27981,7 +28084,7 @@
       <c r="T10">
         <v>8</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
@@ -28025,7 +28128,7 @@
       <c r="T11">
         <v>3</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
@@ -28084,7 +28187,7 @@
       <c r="N13">
         <v>-4.5604656297416703E-2</v>
       </c>
-      <c r="S13" s="49"/>
+      <c r="S13" s="48"/>
       <c r="T13" s="1" t="s">
         <v>87</v>
       </c>
@@ -41598,8 +41701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -41611,7 +41714,8 @@
     <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="12" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.77734375" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" customWidth="1"/>
@@ -43078,12 +43182,12 @@
         <v>348386.02953283</v>
       </c>
       <c r="H45" s="15">
-        <f>G45-_xlfn.T.INV.2T(0.5,18)*M7</f>
-        <v>329563.29608144501</v>
+        <f>G45-_xlfn.T.INV.2T(0.05,18)*M7</f>
+        <v>290938.07077304804</v>
       </c>
       <c r="I45" s="15">
-        <f>G45+_xlfn.T.INV.2T(0.5,18)*M7</f>
-        <v>367208.76298421499</v>
+        <f>G45+_xlfn.T.INV.2T(0.05,18)*M7</f>
+        <v>405833.98829261196</v>
       </c>
       <c r="L45">
         <v>16</v>
@@ -43327,8 +43431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A14" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -44834,4 +44938,1215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D9E921-B056-42D6-9A74-A3DDCAC87035}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
+      <c r="A2">
+        <v>11.410892739405099</v>
+      </c>
+      <c r="B2">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C2">
+        <v>3.7612001156935602</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>12.858397831569899</v>
+      </c>
+      <c r="B3">
+        <v>2.99573227355399</v>
+      </c>
+      <c r="C3">
+        <v>4.9698132995759998</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>11.9671807372478</v>
+      </c>
+      <c r="B4">
+        <v>1.6094379124341001</v>
+      </c>
+      <c r="C4">
+        <v>4.1896547420264296</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="49">
+        <v>0.98444892565278319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>13.4242441692559</v>
+      </c>
+      <c r="B5">
+        <v>3.2580965380214799</v>
+      </c>
+      <c r="C5">
+        <v>5.8318824772835196</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0.96913968721891908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>12.0137007528827</v>
+      </c>
+      <c r="B6">
+        <v>1.6094379124341001</v>
+      </c>
+      <c r="C6">
+        <v>4.1108738641733096</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0.9629676246627028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>12.6115377536383</v>
+      </c>
+      <c r="B7">
+        <v>2.3025850929940499</v>
+      </c>
+      <c r="C7">
+        <v>4.9836066217083399</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0.12904746792407498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1">
+      <c r="A8">
+        <v>11.596806948950899</v>
+      </c>
+      <c r="B8">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C8">
+        <v>3.4011973816621599</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>12.5301035226897</v>
+      </c>
+      <c r="B9">
+        <v>2.3978952727983698</v>
+      </c>
+      <c r="C9">
+        <v>4.3694478524670197</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10">
+        <v>12.9480099902596</v>
+      </c>
+      <c r="B10">
+        <v>2.99573227355399</v>
+      </c>
+      <c r="C10">
+        <v>4.8362819069514797</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>13.7642172635767</v>
+      </c>
+      <c r="B11">
+        <v>4.1271343850450899</v>
+      </c>
+      <c r="C11">
+        <v>5.9763509092979303</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>13.235692062711299</v>
+      </c>
+      <c r="B12">
+        <v>3.2580965380214799</v>
+      </c>
+      <c r="C12">
+        <v>5.7037824746562</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="49">
+        <v>4</v>
+      </c>
+      <c r="I12" s="49">
+        <v>10.459598786204802</v>
+      </c>
+      <c r="J12" s="49">
+        <v>2.6148996965512006</v>
+      </c>
+      <c r="K12" s="49">
+        <v>157.02039284142552</v>
+      </c>
+      <c r="L12" s="49">
+        <v>8.3760196219539785E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12.498742259493</v>
+      </c>
+      <c r="B13">
+        <v>2.5649493574615398</v>
+      </c>
+      <c r="C13">
+        <v>4.39444915467244</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="49">
+        <v>20</v>
+      </c>
+      <c r="I13" s="49">
+        <v>0.33306497955230324</v>
+      </c>
+      <c r="J13" s="49">
+        <v>1.6653248977615161E-2</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
+      <c r="A14">
+        <v>12.577636201962701</v>
+      </c>
+      <c r="B14">
+        <v>2.19722457733622</v>
+      </c>
+      <c r="C14">
+        <v>4.7273878187123399</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="50">
+        <v>24</v>
+      </c>
+      <c r="I14" s="50">
+        <v>10.792663765757105</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1">
+      <c r="A15">
+        <v>12.062202275110501</v>
+      </c>
+      <c r="B15">
+        <v>1.7917594692280501</v>
+      </c>
+      <c r="C15">
+        <v>3.8066624897703201</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>12.687417963973701</v>
+      </c>
+      <c r="B16">
+        <v>2.3978952727983698</v>
+      </c>
+      <c r="C16">
+        <v>4.4998096703302704</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>11.9984332807519</v>
+      </c>
+      <c r="B17">
+        <v>1.6094379124341001</v>
+      </c>
+      <c r="C17">
+        <v>3.6375861597263901</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="49">
+        <v>9.6650850230356209</v>
+      </c>
+      <c r="I17" s="49">
+        <v>0.28768410873573935</v>
+      </c>
+      <c r="J17" s="49">
+        <v>33.5961727796156</v>
+      </c>
+      <c r="K17" s="49">
+        <v>4.5465982265533841E-19</v>
+      </c>
+      <c r="L17" s="49">
+        <v>9.0649864878536093</v>
+      </c>
+      <c r="M17" s="49">
+        <v>10.265183558217633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>12.775638764318799</v>
+      </c>
+      <c r="B18">
+        <v>2.99573227355399</v>
+      </c>
+      <c r="C18">
+        <v>4.9199809258281304</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="49">
+        <v>0.54087137262380003</v>
+      </c>
+      <c r="I18" s="49">
+        <v>0.10926841220249282</v>
+      </c>
+      <c r="J18" s="49">
+        <v>4.9499334869209415</v>
+      </c>
+      <c r="K18" s="49">
+        <v>7.7120412282541311E-5</v>
+      </c>
+      <c r="L18" s="49">
+        <v>0.31294145882862062</v>
+      </c>
+      <c r="M18" s="49">
+        <v>0.76880128641897949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>11.808575707071199</v>
+      </c>
+      <c r="B19">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C19">
+        <v>3.8501476017100602</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="49">
+        <v>0.28613912411328146</v>
+      </c>
+      <c r="I19" s="49">
+        <v>0.11661623739041929</v>
+      </c>
+      <c r="J19" s="49">
+        <v>2.4536816700346522</v>
+      </c>
+      <c r="K19" s="49">
+        <v>2.3433570685886765E-2</v>
+      </c>
+      <c r="L19" s="49">
+        <v>4.2881915559187994E-2</v>
+      </c>
+      <c r="M19" s="49">
+        <v>0.52939633266737496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>12.1388638958367</v>
+      </c>
+      <c r="B20">
+        <v>2.0794415416798402</v>
+      </c>
+      <c r="C20">
+        <v>4.3040650932041702</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="49">
+        <v>0.25898774809881919</v>
+      </c>
+      <c r="I20" s="49">
+        <v>6.8705739492507578E-2</v>
+      </c>
+      <c r="J20" s="49">
+        <v>3.769521294899417</v>
+      </c>
+      <c r="K20" s="49">
+        <v>1.2052383458770702E-3</v>
+      </c>
+      <c r="L20" s="49">
+        <v>0.11567008690007763</v>
+      </c>
+      <c r="M20" s="49">
+        <v>0.40230540929756076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1">
+      <c r="A21">
+        <v>11.955686357822101</v>
+      </c>
+      <c r="B21">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C21">
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="50">
+        <v>0.43962176828731048</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0.10183185919117844</v>
+      </c>
+      <c r="J21" s="50">
+        <v>4.3171338692929835</v>
+      </c>
+      <c r="K21" s="50">
+        <v>3.351768420349541E-4</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0.22720423224738776</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0.65203930432723323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>11.4467856624657</v>
+      </c>
+      <c r="B22">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C22">
+        <v>3.6375861597263901</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>11.6082356447746</v>
+      </c>
+      <c r="B23">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C23">
+        <v>3.4339872044851498</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>13.258989974936201</v>
+      </c>
+      <c r="B24">
+        <v>2.6390573296152602</v>
+      </c>
+      <c r="C24">
+        <v>5.4680601411351297</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>11.280993407622899</v>
+      </c>
+      <c r="B25">
+        <v>1.3862943611198899</v>
+      </c>
+      <c r="C25">
+        <v>3.6635616461296499</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1">
+      <c r="A26">
+        <v>12.5135573452781</v>
+      </c>
+      <c r="B26">
+        <v>1.6094379124341001</v>
+      </c>
+      <c r="C26">
+        <v>4.5538768916005399</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="G27" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="G28" s="49">
+        <v>1</v>
+      </c>
+      <c r="H28" s="49">
+        <v>11.491118463714498</v>
+      </c>
+      <c r="I28" s="49">
+        <v>-8.0225724309398672E-2</v>
+      </c>
+      <c r="J28" s="49">
+        <v>-0.68101202764088598</v>
+      </c>
+      <c r="L28" s="49">
+        <v>2</v>
+      </c>
+      <c r="M28" s="49">
+        <v>11.280993407622899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="G29" s="49">
+        <v>2</v>
+      </c>
+      <c r="H29" s="49">
+        <v>12.966436622492218</v>
+      </c>
+      <c r="I29" s="49">
+        <v>-0.10803879092231838</v>
+      </c>
+      <c r="J29" s="49">
+        <v>-0.91710877905103794</v>
+      </c>
+      <c r="L29" s="49">
+        <v>6</v>
+      </c>
+      <c r="M29" s="49">
+        <v>11.410892739405099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="G30" s="49">
+        <v>3</v>
+      </c>
+      <c r="H30" s="49">
+        <v>11.993395802205955</v>
+      </c>
+      <c r="I30" s="49">
+        <v>-2.6215064958154954E-2</v>
+      </c>
+      <c r="J30" s="49">
+        <v>-0.22253179632307965</v>
+      </c>
+      <c r="L30" s="49">
+        <v>10</v>
+      </c>
+      <c r="M30" s="49">
+        <v>11.4467856624657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="G31" s="49">
+        <v>4</v>
+      </c>
+      <c r="H31" s="49">
+        <v>13.53564768196496</v>
+      </c>
+      <c r="I31" s="49">
+        <v>-0.11140351270906024</v>
+      </c>
+      <c r="J31" s="49">
+        <v>-0.94567088959801737</v>
+      </c>
+      <c r="L31" s="49">
+        <v>14</v>
+      </c>
+      <c r="M31" s="49">
+        <v>11.596806948950899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="G32" s="49">
+        <v>5</v>
+      </c>
+      <c r="H32" s="49">
+        <v>11.970853510820188</v>
+      </c>
+      <c r="I32" s="49">
+        <v>4.2847242062512336E-2</v>
+      </c>
+      <c r="J32" s="49">
+        <v>0.3637173418750041</v>
+      </c>
+      <c r="L32" s="49">
+        <v>18</v>
+      </c>
+      <c r="M32" s="49">
+        <v>11.6082356447746</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13">
+      <c r="G33" s="49">
+        <v>6</v>
+      </c>
+      <c r="H33" s="49">
+        <v>12.595479964626007</v>
+      </c>
+      <c r="I33" s="49">
+        <v>1.6057789012293711E-2</v>
+      </c>
+      <c r="J33" s="49">
+        <v>0.136309737915455</v>
+      </c>
+      <c r="L33" s="49">
+        <v>22</v>
+      </c>
+      <c r="M33" s="49">
+        <v>11.808575707071199</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13">
+      <c r="G34" s="49">
+        <v>7</v>
+      </c>
+      <c r="H34" s="49">
+        <v>11.647095344819187</v>
+      </c>
+      <c r="I34" s="49">
+        <v>-5.0288395868287594E-2</v>
+      </c>
+      <c r="J34" s="49">
+        <v>-0.42688305692315148</v>
+      </c>
+      <c r="L34" s="49">
+        <v>26</v>
+      </c>
+      <c r="M34" s="49">
+        <v>11.955686357822101</v>
+      </c>
+    </row>
+    <row r="35" spans="7:13">
+      <c r="G35" s="49">
+        <v>8</v>
+      </c>
+      <c r="H35" s="49">
+        <v>12.471295660104587</v>
+      </c>
+      <c r="I35" s="49">
+        <v>5.8807862585112503E-2</v>
+      </c>
+      <c r="J35" s="49">
+        <v>0.4992022457268388</v>
+      </c>
+      <c r="L35" s="49">
+        <v>30</v>
+      </c>
+      <c r="M35" s="49">
+        <v>11.9671807372478</v>
+      </c>
+    </row>
+    <row r="36" spans="7:13">
+      <c r="G36" s="49">
+        <v>9</v>
+      </c>
+      <c r="H36" s="49">
+        <v>12.92822806676501</v>
+      </c>
+      <c r="I36" s="49">
+        <v>1.9781923494589293E-2</v>
+      </c>
+      <c r="J36" s="49">
+        <v>0.1679227946603766</v>
+      </c>
+      <c r="L36" s="49">
+        <v>34</v>
+      </c>
+      <c r="M36" s="49">
+        <v>11.9984332807519</v>
+      </c>
+    </row>
+    <row r="37" spans="7:13">
+      <c r="G37" s="49">
+        <v>10</v>
+      </c>
+      <c r="H37" s="49">
+        <v>13.866389425556784</v>
+      </c>
+      <c r="I37" s="49">
+        <v>-0.10217216198008394</v>
+      </c>
+      <c r="J37" s="49">
+        <v>-0.86730873167521483</v>
+      </c>
+      <c r="L37" s="49">
+        <v>38</v>
+      </c>
+      <c r="M37" s="49">
+        <v>12.0137007528827</v>
+      </c>
+    </row>
+    <row r="38" spans="7:13">
+      <c r="G38" s="49">
+        <v>11</v>
+      </c>
+      <c r="H38" s="49">
+        <v>13.318359239225778</v>
+      </c>
+      <c r="I38" s="49">
+        <v>-8.2667176514478413E-2</v>
+      </c>
+      <c r="J38" s="49">
+        <v>-0.7017367805911674</v>
+      </c>
+      <c r="L38" s="49">
+        <v>42</v>
+      </c>
+      <c r="M38" s="49">
+        <v>12.062202275110501</v>
+      </c>
+    </row>
+    <row r="39" spans="7:13">
+      <c r="G39" s="49">
+        <v>12</v>
+      </c>
+      <c r="H39" s="49">
+        <v>12.309816534794701</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0.18892572469829894</v>
+      </c>
+      <c r="J39" s="49">
+        <v>1.6037336148455241</v>
+      </c>
+      <c r="L39" s="49">
+        <v>46</v>
+      </c>
+      <c r="M39" s="49">
+        <v>12.1388638958367</v>
+      </c>
+    </row>
+    <row r="40" spans="7:13">
+      <c r="G40" s="49">
+        <v>13</v>
+      </c>
+      <c r="H40" s="49">
+        <v>12.645813274219666</v>
+      </c>
+      <c r="I40" s="49">
+        <v>-6.8177072256965232E-2</v>
+      </c>
+      <c r="J40" s="49">
+        <v>-0.57873464672347941</v>
+      </c>
+      <c r="L40" s="49">
+        <v>50</v>
+      </c>
+      <c r="M40" s="49">
+        <v>12.498742259493</v>
+      </c>
+    </row>
+    <row r="41" spans="7:13">
+      <c r="G41" s="49">
+        <v>14</v>
+      </c>
+      <c r="H41" s="49">
+        <v>11.98241924528527</v>
+      </c>
+      <c r="I41" s="49">
+        <v>7.9783029825231111E-2</v>
+      </c>
+      <c r="J41" s="49">
+        <v>0.67725412740522473</v>
+      </c>
+      <c r="L41" s="49">
+        <v>54</v>
+      </c>
+      <c r="M41" s="49">
+        <v>12.5135573452781</v>
+      </c>
+    </row>
+    <row r="42" spans="7:13">
+      <c r="G42" s="49">
+        <v>15</v>
+      </c>
+      <c r="H42" s="49">
+        <v>12.508597276485794</v>
+      </c>
+      <c r="I42" s="49">
+        <v>0.17882068748790658</v>
+      </c>
+      <c r="J42" s="49">
+        <v>1.5179549953406868</v>
+      </c>
+      <c r="L42" s="49">
+        <v>58</v>
+      </c>
+      <c r="M42" s="49">
+        <v>12.5301035226897</v>
+      </c>
+    </row>
+    <row r="43" spans="7:13">
+      <c r="G43" s="49">
+        <v>16</v>
+      </c>
+      <c r="H43" s="49">
+        <v>11.83542738161616</v>
+      </c>
+      <c r="I43" s="49">
+        <v>0.16300589913574015</v>
+      </c>
+      <c r="J43" s="49">
+        <v>1.3837080168916733</v>
+      </c>
+      <c r="L43" s="49">
+        <v>62</v>
+      </c>
+      <c r="M43" s="49">
+        <v>12.577636201962701</v>
+      </c>
+    </row>
+    <row r="44" spans="7:13">
+      <c r="G44" s="49">
+        <v>17</v>
+      </c>
+      <c r="H44" s="49">
+        <v>12.693189882616696</v>
+      </c>
+      <c r="I44" s="49">
+        <v>8.2448881702102739E-2</v>
+      </c>
+      <c r="J44" s="49">
+        <v>0.69988374163042055</v>
+      </c>
+      <c r="L44" s="49">
+        <v>66</v>
+      </c>
+      <c r="M44" s="49">
+        <v>12.6115377536383</v>
+      </c>
+    </row>
+    <row r="45" spans="7:13">
+      <c r="G45" s="49">
+        <v>18</v>
+      </c>
+      <c r="H45" s="49">
+        <v>11.956191587742648</v>
+      </c>
+      <c r="I45" s="49">
+        <v>-0.14761588067144871</v>
+      </c>
+      <c r="J45" s="49">
+        <v>-1.2530667821752679</v>
+      </c>
+      <c r="L45" s="49">
+        <v>70</v>
+      </c>
+      <c r="M45" s="49">
+        <v>12.687417963973701</v>
+      </c>
+    </row>
+    <row r="46" spans="7:13">
+      <c r="G46" s="49">
+        <v>19</v>
+      </c>
+      <c r="H46" s="49">
+        <v>12.280344587969758</v>
+      </c>
+      <c r="I46" s="49">
+        <v>-0.14148069213305803</v>
+      </c>
+      <c r="J46" s="49">
+        <v>-1.2009870132176808</v>
+      </c>
+      <c r="L46" s="49">
+        <v>74</v>
+      </c>
+      <c r="M46" s="49">
+        <v>12.775638764318799</v>
+      </c>
+    </row>
+    <row r="47" spans="7:13">
+      <c r="G47" s="49">
+        <v>20</v>
+      </c>
+      <c r="H47" s="49">
+        <v>12.026065892134689</v>
+      </c>
+      <c r="I47" s="49">
+        <v>-7.0379534312587921E-2</v>
+      </c>
+      <c r="J47" s="49">
+        <v>-0.59743068422533085</v>
+      </c>
+      <c r="L47" s="49">
+        <v>78</v>
+      </c>
+      <c r="M47" s="49">
+        <v>12.858397831569899</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13">
+      <c r="G48" s="49">
+        <v>21</v>
+      </c>
+      <c r="H48" s="49">
+        <v>11.455747674625874</v>
+      </c>
+      <c r="I48" s="49">
+        <v>-8.9620121601736713E-3</v>
+      </c>
+      <c r="J48" s="49">
+        <v>-7.6075823876695578E-2</v>
+      </c>
+      <c r="L48" s="49">
+        <v>82</v>
+      </c>
+      <c r="M48" s="49">
+        <v>12.9480099902596</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13">
+      <c r="G49" s="49">
+        <v>22</v>
+      </c>
+      <c r="H49" s="49">
+        <v>11.656477796001587</v>
+      </c>
+      <c r="I49" s="49">
+        <v>-4.8242151226986607E-2</v>
+      </c>
+      <c r="J49" s="49">
+        <v>-0.40951310203377655</v>
+      </c>
+      <c r="L49" s="49">
+        <v>86</v>
+      </c>
+      <c r="M49" s="49">
+        <v>13.235692062711299</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13">
+      <c r="G50" s="49">
+        <v>23</v>
+      </c>
+      <c r="H50" s="49">
+        <v>13.09672329100799</v>
+      </c>
+      <c r="I50" s="49">
+        <v>0.16226668392821075</v>
+      </c>
+      <c r="J50" s="49">
+        <v>1.3774330414810294</v>
+      </c>
+      <c r="L50" s="49">
+        <v>90</v>
+      </c>
+      <c r="M50" s="49">
+        <v>13.258989974936201</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13">
+      <c r="G51" s="49">
+        <v>24</v>
+      </c>
+      <c r="H51" s="49">
+        <v>11.46318027755372</v>
+      </c>
+      <c r="I51" s="49">
+        <v>-0.18218686993082045</v>
+      </c>
+      <c r="J51" s="49">
+        <v>-1.5465295049582879</v>
+      </c>
+      <c r="L51" s="49">
+        <v>94</v>
+      </c>
+      <c r="M51" s="49">
+        <v>13.4242441692559</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13" ht="15" thickBot="1">
+      <c r="G52" s="50">
+        <v>25</v>
+      </c>
+      <c r="H52" s="50">
+        <v>12.278248029256238</v>
+      </c>
+      <c r="I52" s="50">
+        <v>0.235309316021862</v>
+      </c>
+      <c r="J52" s="50">
+        <v>1.9974699612411564</v>
+      </c>
+      <c r="L52" s="50">
+        <v>98</v>
+      </c>
+      <c r="M52" s="50">
+        <v>13.7642172635767</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M28:M52">
+    <sortCondition ref="M28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>